--- a/pred_ohlcv/54_21/2020-01-25 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BTC ohlcv.xlsx
@@ -29876,7 +29876,7 @@
         <v>-64.68420895999996</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-64.68420895999996</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-64.86650895999996</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-59.22463783999996</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>10.09845111000005</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>18.50254765000005</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>25.64364698000005</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>32.77795574000005</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>43.71341018000005</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-8.050882559999952</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-14.26588255999995</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>52.33766097000006</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>40.61166358000006</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>34.68526358000005</v>
       </c>
       <c r="H1321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>46.13622632000005</v>
       </c>
       <c r="H1329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>43.94110048000005</v>
       </c>
       <c r="H1330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>44.49210048000005</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>43.93620048000005</v>
       </c>
       <c r="H1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>44.89355268000005</v>
       </c>
       <c r="H1333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>43.27065268000005</v>
       </c>
       <c r="H1334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>40.00645268000005</v>
       </c>
       <c r="H1335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>42.06265268000004</v>
       </c>
       <c r="H1336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>44.76325268000004</v>
       </c>
       <c r="H1337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>44.63545268000004</v>
       </c>
       <c r="H1338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>44.70665270000004</v>
       </c>
       <c r="H1339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>46.52125268000004</v>
       </c>
       <c r="H1340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>50.24651812000004</v>
       </c>
       <c r="H1341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>45.28549824000004</v>
       </c>
       <c r="H1342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>50.53999821000004</v>
       </c>
       <c r="H1343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>50.53999821000004</v>
       </c>
       <c r="H1344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BTC ohlcv.xlsx
@@ -29928,7 +29928,7 @@
         <v>-62.07060895999997</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-64.86650895999996</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-62.79453783999995</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-61.93343783999995</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>45.11756304000004</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>49.12409723000004</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>54.96549723000004</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>50.66288586000004</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>49.41238581000004</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>39.72388581000004</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>20.66848581000004</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>15.91106867000004</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>7.847668670000042</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>7.409068630000042</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>10.09845111000005</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>18.50254765000005</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>25.64364698000005</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>32.77795574000005</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>43.71341018000005</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>29.90706072000005</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>26.50246072000005</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>26.50246072000005</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-14.26588255999995</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>13.06574290000006</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>10.00744290000006</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>13.27664287000006</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>16.41015296000005</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>15.18345296000006</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>15.67885296000006</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>13.49685707000006</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>53.64931409000005</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>45.48839544000005</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>48.07539544000006</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>50.56229541000006</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>50.86676097000006</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>52.33766097000006</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>55.30676358000006</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>40.61166358000006</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>34.68526358000005</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>33.60456358000005</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>34.40127841000005</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>36.19487841000005</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>37.62907841000005</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>44.24657841000005</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>42.29498898000005</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>46.13622632000005</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>43.94110048000005</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>44.49210048000005</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>43.93620048000005</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>44.89355268000005</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>43.27065268000005</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>40.00645268000005</v>
       </c>
       <c r="H1335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>42.06265268000004</v>
       </c>
       <c r="H1336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>44.76325268000004</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>44.63545268000004</v>
       </c>
       <c r="H1338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>44.70665270000004</v>
       </c>
       <c r="H1339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>46.52125268000004</v>
       </c>
       <c r="H1340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>50.24651812000004</v>
       </c>
       <c r="H1341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>45.28549824000004</v>
       </c>
       <c r="H1342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>50.53999821000004</v>
       </c>
       <c r="H1343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>50.53999821000004</v>
       </c>
       <c r="H1344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
